--- a/Desktop/Default.xlsx
+++ b/Desktop/Default.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Datos_Generales" sheetId="3" r:id="rId3"/>
     <sheet name="Contrato_Colaborador" sheetId="4" r:id="rId4"/>
+    <sheet name="Exoneracion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -526,6 +527,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Desktop/Default.xlsx
+++ b/Desktop/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,27 @@
     <sheet name="Datos_Generales" sheetId="3" r:id="rId3"/>
     <sheet name="Contrato_Colaborador" sheetId="4" r:id="rId4"/>
     <sheet name="Exoneracion" sheetId="5" r:id="rId5"/>
+    <sheet name="Amazonia" sheetId="6" r:id="rId6"/>
+    <sheet name="Reorg" sheetId="7" r:id="rId7"/>
+    <sheet name="Mineria" sheetId="8" r:id="rId8"/>
+    <sheet name="PrincipalesSocios" sheetId="9" r:id="rId9"/>
+    <sheet name="Alquileres" sheetId="10" r:id="rId10"/>
+    <sheet name="Mermas" sheetId="11" r:id="rId11"/>
+    <sheet name="Operaciones" sheetId="12" r:id="rId12"/>
+    <sheet name="Regalias" sheetId="13" r:id="rId13"/>
+    <sheet name="InformacionGeneral" sheetId="14" r:id="rId14"/>
+    <sheet name="Desuso" sheetId="15" r:id="rId15"/>
+    <sheet name="PerdidaExtraordinaria" sheetId="16" r:id="rId16"/>
+    <sheet name="GastosRealizados" sheetId="17" r:id="rId17"/>
+    <sheet name="IdentificacionVehiculos" sheetId="18" r:id="rId18"/>
+    <sheet name="EmpresaConstructora" sheetId="19" r:id="rId19"/>
+    <sheet name="GastosRepresentacion" sheetId="20" r:id="rId20"/>
+    <sheet name="RentaInternacional" sheetId="21" r:id="rId21"/>
+    <sheet name="GastosInvestigacion" sheetId="22" r:id="rId22"/>
+    <sheet name="Determina_Activo" sheetId="23" r:id="rId23"/>
+    <sheet name="Determina_Pasivo_Patrimonio" sheetId="24" r:id="rId24"/>
+    <sheet name="EstadoResultados" sheetId="25" r:id="rId25"/>
+    <sheet name="Determina_Mineria" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -472,7 +493,199 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -504,6 +717,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -546,7 +892,83 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
